--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="属性更新选择路径" sheetId="4" r:id="rId2"/>
-    <sheet name="载荷提取选择路径" sheetId="3" r:id="rId3"/>
-    <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId4"/>
+    <sheet name="控件属性已经操作方法" sheetId="6" r:id="rId2"/>
+    <sheet name="属性更新选择路径" sheetId="4" r:id="rId3"/>
+    <sheet name="载荷提取选择路径" sheetId="3" r:id="rId4"/>
+    <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -121,12 +122,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -136,21 +138,26 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-用于对比文本信息</t>
+文本框
+按钮
+单选框
+勾选框</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -160,24 +167,25 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-预期值展示类型
-弹窗警告
-信息窗口
-控件文本</t>
+方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
+方式二：
+self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -187,26 +195,95 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-在被测模块可能有嵌套窗口</t>
+通用
+特殊一
+特殊二</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是
+否
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+路径弹窗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+警告弹窗</t>
         </r>
       </text>
     </comment>
@@ -313,8 +390,107 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="139">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -655,17 +831,242 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>警告弹出</t>
-  </si>
-  <si>
     <t>整个被测模块</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有嵌套弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定bdf文件保存路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定载荷数据库保存路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_Htail.fem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>load.db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认另存为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等到时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\update_Htail.fem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始属性更新···
+ 属性更新已完成！
+ 开始求解···
+ 求解计算已完成！
+ 开始进行载荷提起···
+ 载荷数据库制作已完成！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +1099,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -744,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -774,6 +1190,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -792,7 +1211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1078,24 +1497,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="38.265625" style="5" customWidth="1"/>
-    <col min="3" max="11" width="9.06640625" style="2"/>
-    <col min="12" max="12" width="22.265625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.06640625" style="2"/>
-    <col min="14" max="14" width="9.06640625" style="3"/>
-    <col min="15" max="16" width="9.06640625" style="10"/>
-    <col min="17" max="17" width="9.06640625" style="3"/>
+    <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
+    <col min="3" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="22.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="9" style="3"/>
+    <col min="15" max="16" width="9" style="10"/>
+    <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,10 +1565,13 @@
         <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -1159,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
@@ -1183,7 +1606,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>30</v>
@@ -1195,439 +1618,19 @@
         <v>81</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N10:N1048576 N4:N8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N3:N1048576">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1638,583 +1641,485 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="38.265625" style="5" customWidth="1"/>
-    <col min="3" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="22.265625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="9.06640625" style="3"/>
-    <col min="15" max="16" width="9.06640625" style="10"/>
-    <col min="17" max="17" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="7" customWidth="1"/>
+    <col min="6" max="7" width="19.375" style="7" customWidth="1"/>
+    <col min="8" max="9" width="13.25" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N10:N1048576 N4:N8">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="38.265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
     <col min="3" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="22.265625" style="2" customWidth="1"/>
-    <col min="13" max="19" width="9" style="2"/>
+    <col min="12" max="12" width="22.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="9.125" style="3"/>
+    <col min="15" max="16" width="9.125" style="10"/>
+    <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2264,24 +2169,27 @@
         <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>28</v>
@@ -2314,29 +2222,30 @@
         <v>81</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>28</v>
@@ -2367,29 +2276,30 @@
         <v>81</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R3"/>
-      <c r="S3"/>
-    </row>
-    <row r="4" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>28</v>
@@ -2410,40 +2320,41 @@
         <v>28</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>31</v>
+      <c r="N4" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>81</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2463,41 +2374,42 @@
         <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>31</v>
+      <c r="N5" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>81</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R5"/>
-      <c r="S5"/>
-    </row>
-    <row r="6" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -2518,41 +2430,42 @@
         <v>28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>31</v>
+      <c r="N6" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>81</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>28</v>
@@ -2573,41 +2486,42 @@
         <v>28</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>31</v>
+      <c r="N7" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R7"/>
-      <c r="S7"/>
-    </row>
-    <row r="8" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>28</v>
@@ -2628,41 +2542,42 @@
         <v>28</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>31</v>
+      <c r="N8" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>81</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R8"/>
-      <c r="S8"/>
-    </row>
-    <row r="9" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>28</v>
@@ -2688,36 +2603,37 @@
       <c r="M9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>31</v>
+      <c r="N9" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>81</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R9"/>
-      <c r="S9"/>
-    </row>
-    <row r="10" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>28</v>
@@ -2738,34 +2654,35 @@
         <v>28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>31</v>
+      <c r="N10" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>81</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R10"/>
-      <c r="S10"/>
-    </row>
-    <row r="11" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2775,14 +2692,625 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
+    <col min="3" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="22.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="9" style="3"/>
+    <col min="15" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
+    <col min="18" max="20" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -201,9 +201,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="136">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -850,18 +850,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否有弹窗出现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -974,23 +962,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>指定bdf文件保存路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>警告弹窗</t>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
@@ -1059,6 +1035,17 @@
  求解计算已完成！
  开始进行载荷提起···
  载荷数据库制作已完成！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1565,7 +1552,7 @@
         <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>80</v>
@@ -1582,7 +1569,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
@@ -1606,7 +1593,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>30</v>
@@ -1643,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1691,10 +1678,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>84</v>
@@ -1720,28 +1707,28 @@
         <v>85</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1749,62 +1736,62 @@
         <v>86</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -1833,263 +1820,263 @@
     </row>
     <row r="7" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2101,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2114,12 +2101,14 @@
     <col min="12" max="12" width="22.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="9.125" style="3"/>
-    <col min="15" max="16" width="9.125" style="10"/>
-    <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="9.125" style="3"/>
+    <col min="15" max="15" width="9.125" style="10"/>
+    <col min="16" max="16" width="6" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="10"/>
+    <col min="18" max="18" width="7.625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2166,16 +2155,19 @@
         <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -2221,17 +2213,20 @@
       <c r="O2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="R2" s="9">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
@@ -2275,17 +2270,20 @@
       <c r="O3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="R3" s="9">
         <v>1</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -2326,22 +2324,25 @@
         <v>30</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="R4" s="9">
         <v>1</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
@@ -2380,22 +2381,25 @@
         <v>30</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="R5" s="9">
         <v>1</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2436,22 +2440,25 @@
         <v>30</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="R6" s="9">
         <v>1</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -2492,22 +2499,25 @@
         <v>30</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="R7" s="9">
         <v>1</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -2548,22 +2558,25 @@
         <v>30</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="R8" s="9">
         <v>1</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -2604,22 +2617,25 @@
         <v>30</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>1</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -2660,23 +2676,23 @@
         <v>30</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="R10" s="9">
         <v>1</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2693,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2707,12 +2723,14 @@
     <col min="12" max="12" width="22.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="9" style="3"/>
-    <col min="15" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
-    <col min="18" max="20" width="9" style="2"/>
+    <col min="15" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="6" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="7.625" style="10" customWidth="1"/>
+    <col min="19" max="21" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2759,16 +2777,19 @@
         <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -2814,19 +2835,22 @@
       <c r="O2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="R2" s="9">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S2"/>
       <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U2"/>
+    </row>
+    <row r="3" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>59</v>
       </c>
@@ -2870,19 +2894,22 @@
       <c r="O3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="R3" s="9">
         <v>1</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S3"/>
       <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U3"/>
+    </row>
+    <row r="4" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -2928,19 +2955,22 @@
       <c r="O4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="R4" s="9">
         <v>1</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S4"/>
       <c r="T4"/>
-    </row>
-    <row r="5" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
@@ -2984,19 +3014,22 @@
       <c r="O5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="R5" s="9">
         <v>1</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S5"/>
       <c r="T5"/>
-    </row>
-    <row r="6" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -3042,19 +3075,22 @@
       <c r="O6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="R6" s="9">
         <v>1</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S6"/>
       <c r="T6"/>
-    </row>
-    <row r="7" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
@@ -3100,19 +3136,22 @@
       <c r="O7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="R7" s="9">
         <v>1</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S7"/>
       <c r="T7"/>
-    </row>
-    <row r="8" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U7"/>
+    </row>
+    <row r="8" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -3158,19 +3197,22 @@
       <c r="O8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="R8" s="9">
         <v>1</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S8"/>
       <c r="T8"/>
-    </row>
-    <row r="9" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
@@ -3216,19 +3258,22 @@
       <c r="O9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>1</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S9"/>
       <c r="T9"/>
-    </row>
-    <row r="10" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -3274,19 +3319,22 @@
       <c r="O10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="R10" s="9">
         <v>1</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S10"/>
       <c r="T10"/>
-    </row>
-    <row r="11" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
     </row>
   </sheetData>
@@ -3307,7 +3355,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="134">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1021,23 +1021,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试结果等到时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\update_Htail.fem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始属性更新···
- 属性更新已完成！
- 开始求解···
- 求解计算已完成！
- 开始进行载荷提起···
- 载荷数据库制作已完成！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作子窗口标题</t>
   </si>
   <si>
@@ -1046,6 +1029,10 @@
   </si>
   <si>
     <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1484,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1502,7 +1489,7 @@
     <col min="18" max="18" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,16 +1536,19 @@
         <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -1569,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
@@ -1593,7 +1583,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>30</v>
@@ -1604,21 +1594,84 @@
       <c r="O2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="9">
-        <v>10</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="9">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N3:N1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N1048576">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N3">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1630,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
@@ -1762,31 +1815,31 @@
     </row>
     <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2091,7 +2144,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2155,13 +2208,13 @@
         <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>80</v>
@@ -2712,7 +2765,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2777,13 +2830,13 @@
         <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>80</v>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -14,6 +14,7 @@
     <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -490,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="136">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1033,6 +1034,14 @@
   </si>
   <si>
     <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求解计算--求解计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1471,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1487,9 +1496,10 @@
     <col min="15" max="16" width="9" style="10"/>
     <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
     <col min="18" max="18" width="9" style="3"/>
+    <col min="19" max="19" width="7.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,10 +1555,13 @@
         <v>133</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -1603,11 +1616,14 @@
       <c r="R2" s="9">
         <v>1</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
@@ -1660,18 +1676,453 @@
       <c r="R3" s="9">
         <v>1</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N10">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N11:N1048576">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N3">
-      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2157,11 +2608,11 @@
     <col min="15" max="15" width="9.125" style="10"/>
     <col min="16" max="16" width="6" style="10" customWidth="1"/>
     <col min="17" max="17" width="9.125" style="10"/>
-    <col min="18" max="18" width="7.625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="9.125" style="3"/>
+    <col min="18" max="19" width="7.625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,10 +2668,13 @@
         <v>133</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -2275,11 +2729,14 @@
       <c r="R2" s="9">
         <v>1</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
@@ -2332,11 +2789,14 @@
       <c r="R3" s="9">
         <v>1</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -2391,11 +2851,14 @@
       <c r="R4" s="9">
         <v>1</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
@@ -2448,11 +2911,14 @@
       <c r="R5" s="9">
         <v>1</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2507,11 +2973,14 @@
       <c r="R6" s="9">
         <v>1</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -2566,11 +3035,14 @@
       <c r="R7" s="9">
         <v>1</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -2625,11 +3097,14 @@
       <c r="R8" s="9">
         <v>1</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -2684,11 +3159,14 @@
       <c r="R9" s="9">
         <v>1</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -2743,7 +3221,10 @@
       <c r="R10" s="9">
         <v>1</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2762,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2779,11 +3260,11 @@
     <col min="15" max="15" width="9" style="2"/>
     <col min="16" max="16" width="6" style="10" customWidth="1"/>
     <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="7.625" style="10" customWidth="1"/>
-    <col min="19" max="21" width="9" style="2"/>
+    <col min="18" max="19" width="7.625" style="10" customWidth="1"/>
+    <col min="20" max="22" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2839,10 +3320,13 @@
         <v>133</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -2897,13 +3381,16 @@
       <c r="R2" s="9">
         <v>1</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="T2"/>
       <c r="U2"/>
-    </row>
-    <row r="3" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>59</v>
       </c>
@@ -2956,13 +3443,16 @@
       <c r="R3" s="9">
         <v>1</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="T3"/>
       <c r="U3"/>
-    </row>
-    <row r="4" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -3017,13 +3507,16 @@
       <c r="R4" s="9">
         <v>1</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T4"/>
       <c r="U4"/>
-    </row>
-    <row r="5" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V4"/>
+    </row>
+    <row r="5" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
@@ -3076,13 +3569,16 @@
       <c r="R5" s="9">
         <v>1</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T5"/>
       <c r="U5"/>
-    </row>
-    <row r="6" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -3137,13 +3633,16 @@
       <c r="R6" s="9">
         <v>1</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T6"/>
       <c r="U6"/>
-    </row>
-    <row r="7" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V6"/>
+    </row>
+    <row r="7" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
@@ -3198,13 +3697,16 @@
       <c r="R7" s="9">
         <v>1</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T7"/>
       <c r="U7"/>
-    </row>
-    <row r="8" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -3259,13 +3761,16 @@
       <c r="R8" s="9">
         <v>1</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T8"/>
       <c r="U8"/>
-    </row>
-    <row r="9" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
@@ -3320,13 +3825,16 @@
       <c r="R9" s="9">
         <v>1</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T9"/>
       <c r="U9"/>
-    </row>
-    <row r="10" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V9"/>
+    </row>
+    <row r="10" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -3381,13 +3889,16 @@
       <c r="R10" s="9">
         <v>1</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T10"/>
       <c r="U10"/>
-    </row>
-    <row r="11" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
     </row>
   </sheetData>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="控件属性已经操作方法" sheetId="6" r:id="rId2"/>
-    <sheet name="属性更新选择路径" sheetId="4" r:id="rId3"/>
-    <sheet name="载荷提取选择路径" sheetId="3" r:id="rId4"/>
-    <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId5"/>
+    <sheet name="测试一" sheetId="7" r:id="rId2"/>
+    <sheet name="控件属性已经操作方法" sheetId="6" r:id="rId3"/>
+    <sheet name="属性更新选择路径" sheetId="4" r:id="rId4"/>
+    <sheet name="载荷提取选择路径" sheetId="3" r:id="rId5"/>
+    <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -118,6 +118,131 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -230,13 +355,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-是
-否
-</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,131 +382,6 @@
           </rPr>
           <t xml:space="preserve">
 路径弹窗</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-警告弹窗</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用于对比文本信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-预期值展示类型
-弹窗警告
-信息窗口
-控件文本</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在被测模块可能有嵌套窗口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
         </r>
       </text>
     </comment>
@@ -490,8 +488,107 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="152">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -843,31 +940,157 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求解计算--求解计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径弹窗</t>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定载荷数据库保存路径；load.db；保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>参数6</t>
+  </si>
+  <si>
+    <t>参数7</t>
+  </si>
+  <si>
+    <t>参数8</t>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>唯一标识方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -875,106 +1098,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定bdf文件保存路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告弹窗</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定载荷数据库保存路径</t>
+    <t>指定bdf文件保存路径；update_Htail.fem；保存</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -986,62 +1114,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>update_Htail.fem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>load.db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认另存为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>求解计算--求解计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块唯一标识</t>
+    <t>所在模块</t>
+  </si>
+  <si>
+    <t>参数9</t>
+  </si>
+  <si>
+    <t>参数10</t>
+  </si>
+  <si>
+    <t>参数11</t>
+  </si>
+  <si>
+    <t>参数12</t>
+  </si>
+  <si>
+    <t>参数13</t>
+  </si>
+  <si>
+    <t>参数14</t>
+  </si>
+  <si>
+    <t>参数15</t>
+  </si>
+  <si>
+    <t>参数16</t>
+  </si>
+  <si>
+    <t>参数17</t>
+  </si>
+  <si>
+    <t>参数18</t>
+  </si>
+  <si>
+    <t>参数19</t>
+  </si>
+  <si>
+    <t>参数20</t>
+  </si>
+  <si>
+    <t>用例状态</t>
+  </si>
+  <si>
+    <t>csh004</t>
+  </si>
+  <si>
+    <t>用例初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1174,6 +1312,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1482,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1546,16 +1690,16 @@
         <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>80</v>
@@ -1617,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>69</v>
@@ -1677,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>69</v>
@@ -1724,7 +1868,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>81</v>
@@ -1739,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>70</v>
@@ -1784,7 +1928,7 @@
         <v>30</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>81</v>
@@ -1799,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>71</v>
@@ -1846,7 +1990,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>81</v>
@@ -1861,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>71</v>
@@ -1908,7 +2052,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>81</v>
@@ -1923,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>71</v>
@@ -1970,7 +2114,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>81</v>
@@ -1985,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>71</v>
@@ -2032,7 +2176,7 @@
         <v>30</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>81</v>
@@ -2047,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>70</v>
@@ -2094,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>81</v>
@@ -2109,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>70</v>
@@ -2132,13 +2276,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:32" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="13" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z2">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
@@ -2153,28 +2518,28 @@
     <row r="1" spans="1:9" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2182,16 +2547,16 @@
         <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>84</v>
@@ -2200,102 +2565,102 @@
         <v>84</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -2313,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -2322,265 +2687,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
@@ -2659,16 +2879,16 @@
         <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>80</v>
@@ -2730,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>69</v>
@@ -2790,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>69</v>
@@ -2837,7 +3057,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>81</v>
@@ -2852,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>70</v>
@@ -2897,7 +3117,7 @@
         <v>30</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>81</v>
@@ -2912,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>71</v>
@@ -2959,7 +3179,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>81</v>
@@ -2974,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>71</v>
@@ -3021,7 +3241,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>81</v>
@@ -3036,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>71</v>
@@ -3083,7 +3303,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>81</v>
@@ -3098,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>71</v>
@@ -3145,7 +3365,7 @@
         <v>30</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>81</v>
@@ -3160,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>70</v>
@@ -3207,7 +3427,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>81</v>
@@ -3222,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>70</v>
@@ -3241,7 +3461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
@@ -3311,16 +3531,16 @@
         <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>80</v>
@@ -3382,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>69</v>
@@ -3444,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>69</v>
@@ -3508,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>70</v>
@@ -3570,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>71</v>
@@ -3634,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>71</v>
@@ -3698,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>71</v>
@@ -3762,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>71</v>
@@ -3826,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>70</v>
@@ -3890,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>70</v>
@@ -3914,7 +4134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,33 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用例执行状态
-执行
-不执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="126">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1017,31 +991,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>参数1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>参数3</t>
-  </si>
-  <si>
-    <t>参数4</t>
-  </si>
-  <si>
-    <t>参数5</t>
-  </si>
-  <si>
-    <t>参数6</t>
-  </si>
-  <si>
-    <t>参数7</t>
-  </si>
-  <si>
-    <t>参数8</t>
-  </si>
-  <si>
     <t>文本框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1122,64 +1071,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所在模块</t>
-  </si>
-  <si>
-    <t>参数9</t>
-  </si>
-  <si>
-    <t>参数10</t>
-  </si>
-  <si>
-    <t>参数11</t>
-  </si>
-  <si>
-    <t>参数12</t>
-  </si>
-  <si>
-    <t>参数13</t>
-  </si>
-  <si>
-    <t>参数14</t>
-  </si>
-  <si>
-    <t>参数15</t>
-  </si>
-  <si>
-    <t>参数16</t>
-  </si>
-  <si>
-    <t>参数17</t>
-  </si>
-  <si>
-    <t>参数18</t>
-  </si>
-  <si>
-    <t>参数19</t>
-  </si>
-  <si>
-    <t>参数20</t>
-  </si>
-  <si>
-    <t>用例状态</t>
-  </si>
-  <si>
-    <t>csh004</t>
-  </si>
-  <si>
-    <t>用例初始化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1281,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1312,12 +1204,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2276,124 +2162,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:32" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="13" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>148</v>
+    <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
@@ -2402,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>29</v>
@@ -2414,80 +2264,41 @@
         <v>29</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" s="9" t="s">
+      <c r="O2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="9" t="s">
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>71</v>
+      <c r="T2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1">
-      <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2499,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2518,28 +2329,28 @@
     <row r="1" spans="1:9" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2550,13 +2361,13 @@
         <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>84</v>
@@ -2565,18 +2376,18 @@
         <v>84</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>85</v>
@@ -2588,7 +2399,7 @@
         <v>87</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>88</v>
@@ -2597,18 +2408,18 @@
         <v>89</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>91</v>
@@ -2620,33 +2431,33 @@
         <v>91</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>94</v>
@@ -2655,12 +2466,12 @@
         <v>94</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -2675,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -2704,10 +2515,10 @@
         <v>102</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>99</v>
@@ -2721,25 +2532,25 @@
         <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>99</v>
@@ -2750,54 +2561,54 @@
         <v>101</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>99</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>99</v>
@@ -2806,7 +2617,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2814,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -562,7 +562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="127">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1072,6 +1072,10 @@
   </si>
   <si>
     <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1204,6 +1208,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1510,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1527,9 +1534,10 @@
     <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
     <col min="18" max="18" width="9" style="3"/>
     <col min="19" max="19" width="7.625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,11 +1595,14 @@
       <c r="S1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -1649,11 +1660,12 @@
       <c r="S2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
@@ -1709,11 +1721,12 @@
       <c r="S3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="12"/>
+      <c r="U3" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -1771,11 +1784,12 @@
       <c r="S4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
@@ -1831,11 +1845,12 @@
       <c r="S5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -1893,11 +1908,12 @@
       <c r="S6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -1955,11 +1971,12 @@
       <c r="S7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="12"/>
+      <c r="U7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -2017,11 +2034,12 @@
       <c r="S8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="12"/>
+      <c r="U8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -2079,11 +2097,12 @@
       <c r="S9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="12"/>
+      <c r="U9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -2141,18 +2160,28 @@
       <c r="S10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="12"/>
+      <c r="U10" s="3" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="11" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N10">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N11:N1048576">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+      <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2310,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2624,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2641,10 +2670,11 @@
     <col min="16" max="16" width="6" style="10" customWidth="1"/>
     <col min="17" max="17" width="9.125" style="10"/>
     <col min="18" max="19" width="7.625" style="10" customWidth="1"/>
-    <col min="20" max="20" width="9.125" style="3"/>
+    <col min="20" max="20" width="13.5" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2702,11 +2732,14 @@
       <c r="S1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -2764,11 +2797,12 @@
       <c r="S2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>50</v>
       </c>
@@ -2824,11 +2858,12 @@
       <c r="S3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="12"/>
+      <c r="U3" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -2886,11 +2921,12 @@
       <c r="S4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
@@ -2946,11 +2982,12 @@
       <c r="S5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -3008,11 +3045,12 @@
       <c r="S6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -3070,11 +3108,12 @@
       <c r="S7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="12"/>
+      <c r="U7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -3132,11 +3171,12 @@
       <c r="S8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="12"/>
+      <c r="U8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -3194,11 +3234,12 @@
       <c r="S9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="12"/>
+      <c r="U9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -3256,15 +3297,25 @@
       <c r="S10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="12"/>
+      <c r="U10" s="3" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="11" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+      <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3275,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3293,10 +3344,11 @@
     <col min="16" max="16" width="6" style="10" customWidth="1"/>
     <col min="17" max="17" width="9" style="2"/>
     <col min="18" max="19" width="7.625" style="10" customWidth="1"/>
-    <col min="20" max="22" width="9" style="2"/>
+    <col min="20" max="20" width="13.5" style="3" customWidth="1"/>
+    <col min="21" max="23" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3354,11 +3406,14 @@
       <c r="S1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -3416,13 +3471,14 @@
       <c r="S2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U2"/>
       <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W2"/>
+    </row>
+    <row r="3" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>59</v>
       </c>
@@ -3478,13 +3534,14 @@
       <c r="S3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="12"/>
+      <c r="U3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U3"/>
       <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -3542,13 +3599,14 @@
       <c r="S4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U4"/>
       <c r="V4"/>
-    </row>
-    <row r="5" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
@@ -3604,13 +3662,14 @@
       <c r="S5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U5"/>
       <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -3668,13 +3727,14 @@
       <c r="S6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U6"/>
       <c r="V6"/>
-    </row>
-    <row r="7" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
@@ -3732,13 +3792,14 @@
       <c r="S7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="12"/>
+      <c r="U7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U7"/>
       <c r="V7"/>
-    </row>
-    <row r="8" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -3796,13 +3857,14 @@
       <c r="S8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="12"/>
+      <c r="U8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U8"/>
       <c r="V8"/>
-    </row>
-    <row r="9" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
@@ -3860,13 +3922,14 @@
       <c r="S9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="12"/>
+      <c r="U9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U9"/>
       <c r="V9"/>
-    </row>
-    <row r="10" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -3924,20 +3987,28 @@
       <c r="S10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="12"/>
+      <c r="U10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U10"/>
       <c r="V10"/>
-    </row>
-    <row r="11" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+      <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3950,7 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -562,7 +562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="133">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1076,6 +1076,30 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\test\update_Htail.fem][拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\test.fem][拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\inexistence\update_Htail.fem][拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\中文名称文件夹\update_Htail.fem][拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ test\ up date_Htail.fem][拼接路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2655,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2750,7 +2774,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
@@ -2798,9 +2822,6 @@
         <v>96</v>
       </c>
       <c r="T2" s="8"/>
-      <c r="U2" s="3" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="3" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -2813,7 +2834,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>28</v>
@@ -2859,9 +2880,6 @@
         <v>96</v>
       </c>
       <c r="T3" s="12"/>
-      <c r="U3" s="3" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="4" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
@@ -2874,7 +2892,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>28</v>
@@ -2922,9 +2940,6 @@
         <v>96</v>
       </c>
       <c r="T4" s="12"/>
-      <c r="U4" s="3" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="5" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -2983,9 +2998,6 @@
         <v>96</v>
       </c>
       <c r="T5" s="12"/>
-      <c r="U5" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="6" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
@@ -3046,9 +3058,6 @@
         <v>96</v>
       </c>
       <c r="T6" s="12"/>
-      <c r="U6" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="7" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -3109,9 +3118,6 @@
         <v>96</v>
       </c>
       <c r="T7" s="12"/>
-      <c r="U7" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="8" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -3124,7 +3130,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -3172,9 +3178,6 @@
         <v>96</v>
       </c>
       <c r="T8" s="12"/>
-      <c r="U8" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="9" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -3187,7 +3190,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -3235,9 +3238,6 @@
         <v>96</v>
       </c>
       <c r="T9" s="12"/>
-      <c r="U9" s="3" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="10" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -3250,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -3298,9 +3298,6 @@
         <v>96</v>
       </c>
       <c r="T10" s="12"/>
-      <c r="U10" s="3" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="11" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T11" s="12"/>
@@ -4021,7 +4018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -369,7 +369,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -519,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="134">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -772,18 +772,6 @@
 3、依次点击“载荷提取”、“求解计算”、“载荷提取”按钮。</t>
   </si>
   <si>
-    <t>\inexistence\load.db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\中文名称文件夹\load.db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\ test\ loa d.db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>qjjs001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -864,10 +852,6 @@
   </si>
   <si>
     <t>\test\update_Htail.fem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>\test\load.db</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1027,10 +1011,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1100,6 +1080,30 @@
   </si>
   <si>
     <t>\ test\ up date_Htail.fem][拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\test\load.db][拼接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\test.fem][拼接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\inexistence\load.db][拼接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\中文名称文件夹\load.db][拼接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\ test\ loa d.db][拼接</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1236,6 +1240,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,39 +1603,39 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="T1" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -1637,7 +1644,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
@@ -1661,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>30</v>
@@ -1670,28 +1677,28 @@
         <v>31</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R2" s="9">
         <v>1</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -1731,28 +1738,28 @@
         <v>31</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R3" s="9">
         <v>1</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -1761,7 +1768,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>28</v>
@@ -1791,31 +1798,31 @@
         <v>30</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R4" s="9">
         <v>1</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T4" s="12"/>
       <c r="U4" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -1852,31 +1859,31 @@
         <v>30</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R5" s="9">
         <v>1</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -1915,31 +1922,31 @@
         <v>30</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R6" s="9">
         <v>1</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -1978,31 +1985,31 @@
         <v>30</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R7" s="9">
         <v>1</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2041,31 +2048,31 @@
         <v>30</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R8" s="9">
         <v>1</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T8" s="12"/>
       <c r="U8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -2098,37 +2105,37 @@
         <v>28</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R9" s="9">
         <v>1</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -2167,26 +2174,26 @@
         <v>30</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R10" s="9">
         <v>1</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T10" s="12"/>
       <c r="U10" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2258,36 +2265,36 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -2296,7 +2303,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
@@ -2320,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>30</v>
@@ -2329,22 +2336,22 @@
         <v>31</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R2" s="9">
         <v>0</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2363,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2408,123 +2415,123 @@
     </row>
     <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>114</v>
+      <c r="A5" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -2553,118 +2560,118 @@
     </row>
     <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2677,28 +2684,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
-    <col min="3" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="22.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="9.125" style="3"/>
-    <col min="15" max="15" width="9.125" style="10"/>
-    <col min="16" max="16" width="6" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.125" style="10"/>
-    <col min="18" max="19" width="7.625" style="10" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.125" style="3"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="22.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="6" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10"/>
+    <col min="10" max="11" width="7.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="3" customWidth="1"/>
+    <col min="13" max="20" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2709,63 +2716,60 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -2774,58 +2778,58 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="8"/>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -2833,57 +2837,57 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="12"/>
       <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="9">
-        <v>1</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2892,58 +2896,58 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="12"/>
       <c r="M4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2951,57 +2955,57 @@
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="9">
-        <v>1</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L5" s="12"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -3010,58 +3014,58 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="9">
-        <v>1</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -3070,58 +3074,58 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="9">
-        <v>1</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3130,58 +3134,58 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="12"/>
       <c r="M8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="9">
-        <v>1</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -3190,58 +3194,58 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="9">
-        <v>1</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -3250,68 +3254,68 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" s="9">
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T12" s="12"/>
+        <v>127</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3323,29 +3327,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="38.25" style="5" customWidth="1"/>
-    <col min="3" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="22.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="9" style="3"/>
-    <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="6" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="19" width="7.625" style="10" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="3" customWidth="1"/>
-    <col min="21" max="23" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="22.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="6" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="11" width="7.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="3" customWidth="1"/>
+    <col min="13" max="22" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3356,128 +3360,122 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="8"/>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2"/>
       <c r="V2"/>
-      <c r="W2"/>
-    </row>
-    <row r="3" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>36</v>
@@ -3485,62 +3483,59 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="12"/>
       <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="9">
-        <v>1</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3"/>
       <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>37</v>
@@ -3549,63 +3544,60 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="12"/>
       <c r="M4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4"/>
       <c r="V4"/>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>39</v>
@@ -3614,61 +3606,58 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="12"/>
       <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="9">
-        <v>1</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5"/>
       <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>41</v>
@@ -3677,63 +3666,60 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="9">
-        <v>1</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6"/>
       <c r="V6"/>
-      <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>42</v>
@@ -3742,63 +3728,60 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="9">
-        <v>1</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7"/>
       <c r="V7"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -3807,63 +3790,60 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="9">
-        <v>1</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8"/>
       <c r="V8"/>
-      <c r="W8"/>
-    </row>
-    <row r="9" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>44</v>
@@ -3872,63 +3852,60 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="9">
-        <v>1</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9"/>
       <c r="V9"/>
-      <c r="W9"/>
-    </row>
-    <row r="10" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>45</v>
@@ -3937,74 +3914,71 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" s="9">
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10"/>
       <c r="V10"/>
-      <c r="W10"/>
-    </row>
-    <row r="11" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T12" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -2371,7 +2371,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -2371,7 +2371,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F7" activeCellId="1" sqref="G6 F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/求解计算/自动化求解计算.xlsx
@@ -14,7 +14,7 @@
     <sheet name="载荷提取选择路径" sheetId="3" r:id="rId5"/>
     <sheet name="软件路径设置弹窗" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2371,7 +2371,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" activeCellId="1" sqref="G6 F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>
